--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2227584.983379714</v>
+        <v>-2230172.49458529</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>135.1084201600014</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>272.9733749441958</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0814842140681</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>68.32399804391626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899009</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>61.79984027811556</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.87943354460261</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>48.52634901048868</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>56.97227283338371</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.0130390227254</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055927</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>88.08468918550483</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438594</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>55.67950865071674</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175991</v>
+        <v>3.475606507923894</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012258</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.925242495064</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>172.9322023712998</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505398</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>105.9893107373031</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794016</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>19.88691958258289</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>25.52471385612554</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652653</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1824.238566678978</v>
+        <v>1521.023433799013</v>
       </c>
       <c r="C2" t="n">
-        <v>1455.276049738566</v>
+        <v>1521.023433799013</v>
       </c>
       <c r="D2" t="n">
-        <v>1097.010351131816</v>
+        <v>1162.757735192263</v>
       </c>
       <c r="E2" t="n">
-        <v>1097.010351131816</v>
+        <v>776.9694825940185</v>
       </c>
       <c r="F2" t="n">
-        <v>686.0244463422083</v>
+        <v>776.9694825940185</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803942</v>
+        <v>361.7266088086083</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842588</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730312</v>
+        <v>237.100139173031</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315693</v>
+        <v>549.6723906315694</v>
       </c>
       <c r="L2" t="n">
         <v>974.3476699529738</v>
@@ -4349,31 +4349,31 @@
         <v>2841.109377259758</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
         <v>3119.882870623638</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614957</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.44078599836</v>
+        <v>2752.164563056244</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.37789865479</v>
+        <v>2421.101675712674</v>
       </c>
       <c r="W2" t="n">
-        <v>2214.37789865479</v>
+        <v>2421.101675712674</v>
       </c>
       <c r="X2" t="n">
-        <v>2214.37789865479</v>
+        <v>2047.635917451594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1824.238566678978</v>
+        <v>1657.496585475782</v>
       </c>
     </row>
     <row r="3">
@@ -4401,22 +4401,22 @@
         <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170479</v>
+        <v>74.31639416170481</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J3" t="n">
         <v>147.6314117602529</v>
       </c>
       <c r="K3" t="n">
-        <v>371.4642984981862</v>
+        <v>505.1752167419863</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663802</v>
+        <v>852.4686968101803</v>
       </c>
       <c r="M3" t="n">
-        <v>1143.389757203036</v>
+        <v>1277.100675446836</v>
       </c>
       <c r="N3" t="n">
         <v>1727.380043941864</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.324890433165</v>
+        <v>1090.554288503538</v>
       </c>
       <c r="C4" t="n">
-        <v>279.324890433165</v>
+        <v>921.6181055756307</v>
       </c>
       <c r="D4" t="n">
-        <v>279.324890433165</v>
+        <v>771.5014661632949</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4117968507719</v>
+        <v>623.5883725809018</v>
       </c>
       <c r="F4" t="n">
-        <v>62.39765741247275</v>
+        <v>476.6984250829915</v>
       </c>
       <c r="G4" t="n">
-        <v>62.39765741247275</v>
+        <v>308.919142284153</v>
       </c>
       <c r="H4" t="n">
-        <v>62.39765741247275</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038608</v>
+        <v>102.2230998038607</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589864</v>
+        <v>297.5053722589865</v>
       </c>
       <c r="L4" t="n">
-        <v>602.92588227127</v>
+        <v>602.9258822712701</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583198</v>
+        <v>935.3381100583197</v>
       </c>
       <c r="N4" t="n">
         <v>1265.280934468308</v>
@@ -4510,28 +4510,28 @@
         <v>1848.902273001215</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809516</v>
+        <v>1755.634517809515</v>
       </c>
       <c r="S4" t="n">
         <v>1562.6163853208</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239672</v>
+        <v>1562.6163853208</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.41609957403</v>
+        <v>1500.192304231795</v>
       </c>
       <c r="V4" t="n">
-        <v>796.731611368143</v>
+        <v>1500.192304231795</v>
       </c>
       <c r="W4" t="n">
-        <v>507.3144413311824</v>
+        <v>1500.192304231795</v>
       </c>
       <c r="X4" t="n">
-        <v>279.324890433165</v>
+        <v>1272.202753333777</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.324890433165</v>
+        <v>1272.202753333777</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484276</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.336584543865</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5483319456202</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2706.790414642315</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430315</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151246</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>515.5158243151246</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>367.6027307327315</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>367.6027307327315</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
         <v>1572.164517693149</v>
@@ -4787,10 +4787,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4887,34 +4887,34 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364616</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>535.6956517515291</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>387.782558169136</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110231</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667013</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400701</v>
+        <v>869.9745311434717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121631</v>
+        <v>701.0383482155648</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138399</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703098</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032295</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>680.4481746984129</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,10 +5458,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
         <v>1977.461080510508</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769993</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334693</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400714</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121646</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121646</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142542</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142542</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703112</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5844,13 +5844,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.24764486066</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327531</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121638</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.6725264685181</v>
+        <v>802.9288273958737</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406112</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6394,10 +6394,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238956</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987578</v>
+        <v>984.5772922261134</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7388,16 +7388,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7433,16 +7433,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.604838556055</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795961</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>135.061533579596</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>247.6254215034792</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>138.1170701033603</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.0814842140681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.09704997901498</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>224.4161260208694</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664525</v>
+        <v>145.1398665102885</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>45.65245098079503</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711699</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.4161395899852</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.7094839302722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823152</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.8807364711627</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49733.50450522573</v>
+        <v>49733.50450522572</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="J2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982126</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982128</v>
-      </c>
       <c r="P2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023812</v>
+        <v>54832.77288023804</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.6584503628</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594296</v>
+        <v>32664.34410594288</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683045</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683045</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="L4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992394</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.72340992389</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>20987.72340992391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1341218.481401693</v>
+        <v>-1341613.302342846</v>
       </c>
       <c r="C6" t="n">
-        <v>-193372.4796199919</v>
+        <v>-193372.4796199918</v>
       </c>
       <c r="D6" t="n">
         <v>-138539.7067397538</v>
       </c>
       <c r="E6" t="n">
-        <v>-378995.8608013424</v>
+        <v>-379030.5987267781</v>
       </c>
       <c r="F6" t="n">
-        <v>-53583.3989939871</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="G6" t="n">
-        <v>-53583.39899398712</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="H6" t="n">
-        <v>-53583.3989939871</v>
+        <v>-53618.13691942281</v>
       </c>
       <c r="I6" t="n">
-        <v>-53583.39899398712</v>
+        <v>-53618.13691942279</v>
       </c>
       <c r="J6" t="n">
-        <v>-257658.0574443498</v>
+        <v>-257692.7953697856</v>
       </c>
       <c r="K6" t="n">
-        <v>-95238.05062996101</v>
+        <v>-95238.05062996097</v>
       </c>
       <c r="L6" t="n">
-        <v>-62573.70652401805</v>
+        <v>-62573.70652401806</v>
       </c>
       <c r="M6" t="n">
-        <v>-147628.73445953</v>
+        <v>-147628.7344595299</v>
       </c>
       <c r="N6" t="n">
-        <v>-62573.70652401796</v>
+        <v>-62573.70652401803</v>
       </c>
       <c r="O6" t="n">
-        <v>-62573.70652401802</v>
+        <v>-62573.70652401804</v>
       </c>
       <c r="P6" t="n">
-        <v>-82001.42451764981</v>
+        <v>-82001.42451764987</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>356.9966121971088</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2259094596462</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0535354256445</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>51.12460430110264</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330929</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>261.1562795319082</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>90.1838180542419</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>89.7415393722145</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,16 +31850,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111474</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32564,7 +32564,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106283</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113906</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34778,7 +34778,7 @@
         <v>86.09470136139404</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878114</v>
+        <v>361.1553585674075</v>
       </c>
       <c r="L3" t="n">
         <v>350.8014950183778</v>
@@ -34787,7 +34787,7 @@
         <v>428.9211905420764</v>
       </c>
       <c r="N3" t="n">
-        <v>589.8891785240689</v>
+        <v>454.8276449444729</v>
       </c>
       <c r="O3" t="n">
         <v>393.634199756763</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,16 +35498,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366703</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629807</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
